--- a/Studentai.xlsx
+++ b/Studentai.xlsx
@@ -12,6 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$6:$E$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$6:$E$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$C$6:$E$35</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>Nr</t>
   </si>
@@ -172,13 +174,16 @@
     <t>Gytis</t>
   </si>
   <si>
+    <t>gyse3054</t>
+  </si>
+  <si>
     <t>Sasnauskaitė</t>
   </si>
   <si>
     <t>Justina</t>
   </si>
   <si>
-    <t>justinasasnauskaitė</t>
+    <t>justinasasnauskaite</t>
   </si>
   <si>
     <t>Lenzbergaitė</t>
@@ -197,6 +202,9 @@
   </si>
   <si>
     <t>Kęstutis</t>
+  </si>
+  <si>
+    <t>Kestous</t>
   </si>
   <si>
     <t>Pieškutė</t>
@@ -304,6 +312,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -325,6 +334,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -338,11 +348,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Liberation Mono;Courier New;Nimbus Mono L;DejaVu Sans Mono;Courier"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -454,17 +466,15 @@
   </sheetPr>
   <dimension ref="B6:I37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,7 +537,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -546,7 +556,9 @@
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -773,7 +785,9 @@
       <c r="E21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
@@ -785,13 +799,13 @@
         <v>1413328</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -805,13 +819,13 @@
         <v>1512237</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -824,10 +838,10 @@
         <v>1112206</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -841,12 +855,14 @@
         <v>1512227</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G25" s="3" t="n">
         <v>1</v>
       </c>
@@ -860,16 +876,16 @@
         <v>1512230</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -881,17 +897,17 @@
         <v>1512209</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -902,13 +918,13 @@
         <v>1512221</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -921,13 +937,13 @@
         <v>1512231</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -940,17 +956,17 @@
         <v>1512219</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -961,19 +977,19 @@
         <v>1512224</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -984,13 +1000,13 @@
         <v>1512214</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1003,10 +1019,10 @@
         <v>1512238</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1020,10 +1036,10 @@
         <v>1512226</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1037,10 +1053,10 @@
         <v>1411452</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1052,13 +1068,13 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1069,13 +1085,13 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>

--- a/Studentai.xlsx
+++ b/Studentai.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vygantas\Econometrics1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vygantas\asm\PE\Econometrics1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$C$6:$E$35</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Sheet1!$C$6:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -307,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +639,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -803,8 +808,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -939,6 +945,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -974,6 +997,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1128,18 +1168,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="19"/>
     <col min="5" max="5" width="17"/>
-    <col min="6" max="6" width="22.85546875"/>
+    <col min="6" max="6" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1179,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1200,7 +1240,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -1220,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -1240,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1257,7 +1297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1274,7 +1314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -1291,7 +1331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
@@ -1305,7 +1345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
@@ -1322,7 +1362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
@@ -1342,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>11</v>
       </c>
@@ -1359,7 +1399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>12</v>
       </c>
@@ -1372,28 +1412,31 @@
       <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="H18">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="1" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1512213</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>14</v>
       </c>
@@ -1410,7 +1453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>15</v>
       </c>
@@ -1427,7 +1470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>16</v>
       </c>
@@ -1444,7 +1487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>17</v>
       </c>
@@ -1461,7 +1504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>18</v>
       </c>
@@ -1475,7 +1518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>19</v>
       </c>
@@ -1495,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>20</v>
       </c>
@@ -1515,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>21</v>
       </c>
@@ -1535,7 +1578,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>22</v>
       </c>
@@ -1555,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>23</v>
       </c>
@@ -1568,11 +1611,14 @@
       <c r="E29" t="s">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>24</v>
       </c>
@@ -1592,7 +1638,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>25</v>
       </c>
@@ -1615,7 +1661,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>26</v>
       </c>
@@ -1632,7 +1678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>27</v>
       </c>
@@ -1646,7 +1692,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>28</v>
       </c>
@@ -1660,7 +1706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>29</v>
       </c>
@@ -1674,7 +1720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>30</v>
       </c>
@@ -1688,7 +1734,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>31</v>
       </c>
@@ -1698,7 +1744,7 @@
       <c r="E37" t="s">
         <v>89</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>90</v>
       </c>
     </row>

--- a/Studentai.xlsx
+++ b/Studentai.xlsx
@@ -9,11 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$6:$E$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$C$6:$E$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$6:$E$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>Nr</t>
   </si>
@@ -111,162 +114,183 @@
     <t>domanteb</t>
   </si>
   <si>
+    <t>Oganauskaitė</t>
+  </si>
+  <si>
+    <t>Dovilė</t>
+  </si>
+  <si>
+    <t>ogadova</t>
+  </si>
+  <si>
+    <t>Basytė</t>
+  </si>
+  <si>
+    <t>Edita</t>
+  </si>
+  <si>
+    <t>edba2903</t>
+  </si>
+  <si>
+    <t>Rudytė</t>
+  </si>
+  <si>
+    <t>Emilija</t>
+  </si>
+  <si>
+    <t>emru3000</t>
+  </si>
+  <si>
+    <t>Lauruškaitė</t>
+  </si>
+  <si>
+    <t>Greta</t>
+  </si>
+  <si>
+    <t>lauruskyte</t>
+  </si>
+  <si>
+    <t>Semėnas</t>
+  </si>
+  <si>
+    <t>Gytis</t>
+  </si>
+  <si>
+    <t>gyse3054</t>
+  </si>
+  <si>
+    <t>Sasnauskaitė</t>
+  </si>
+  <si>
+    <t>Justina</t>
+  </si>
+  <si>
+    <t>justinasasnauskaite</t>
+  </si>
+  <si>
+    <t>Lenzbergaitė</t>
+  </si>
+  <si>
+    <t>Karolina</t>
+  </si>
+  <si>
+    <t>kale3205</t>
+  </si>
+  <si>
+    <t>Gudžiūnas</t>
+  </si>
+  <si>
+    <t>Kęstutis</t>
+  </si>
+  <si>
+    <t>Kestous</t>
+  </si>
+  <si>
+    <t>Pieškutė</t>
+  </si>
+  <si>
+    <t>Milda</t>
+  </si>
+  <si>
+    <t>MildaPie</t>
+  </si>
+  <si>
+    <t>Jautakaitė</t>
+  </si>
+  <si>
+    <t>Orinta</t>
+  </si>
+  <si>
+    <t>ojautakaite</t>
+  </si>
+  <si>
+    <t>Balužis</t>
+  </si>
+  <si>
+    <t>Raigardas</t>
+  </si>
+  <si>
+    <t>raigardas</t>
+  </si>
+  <si>
+    <t>Aleksandravičius</t>
+  </si>
+  <si>
+    <t>Rokas</t>
+  </si>
+  <si>
+    <t>rokasaleks</t>
+  </si>
+  <si>
+    <t>Kozlovskaja</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>SandraKozlovskaja</t>
+  </si>
+  <si>
+    <t>Gritytė</t>
+  </si>
+  <si>
+    <t>Simona</t>
+  </si>
+  <si>
+    <t>simona1234</t>
+  </si>
+  <si>
+    <t>Levickaitė</t>
+  </si>
+  <si>
+    <t>simonalevickaite</t>
+  </si>
+  <si>
+    <t>Tučiutė</t>
+  </si>
+  <si>
+    <t>Auksė</t>
+  </si>
+  <si>
+    <t>auksetuciute</t>
+  </si>
+  <si>
+    <t>Samaitis</t>
+  </si>
+  <si>
+    <t>Jurgis</t>
+  </si>
+  <si>
+    <t>aukslius12</t>
+  </si>
+  <si>
+    <t>Biliūnaitė</t>
+  </si>
+  <si>
+    <t>Gineta</t>
+  </si>
+  <si>
+    <t>Giinetta</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>Jeskelevičiūtė</t>
+  </si>
+  <si>
+    <t>gretajes</t>
+  </si>
+  <si>
     <t>Tučis</t>
   </si>
   <si>
     <t>Dominykas</t>
   </si>
   <si>
-    <t>Oganauskaitė</t>
-  </si>
-  <si>
-    <t>Dovilė</t>
-  </si>
-  <si>
-    <t>ogadova</t>
-  </si>
-  <si>
-    <t>Basytė</t>
-  </si>
-  <si>
-    <t>Edita</t>
-  </si>
-  <si>
-    <t>edba2903</t>
-  </si>
-  <si>
-    <t>Rudytė</t>
-  </si>
-  <si>
-    <t>Emilija</t>
-  </si>
-  <si>
-    <t>emru3000</t>
-  </si>
-  <si>
-    <t>Biliūnaitė</t>
-  </si>
-  <si>
-    <t>Gineta</t>
-  </si>
-  <si>
-    <t>Giinetta</t>
-  </si>
-  <si>
-    <t>Jeskelevičiūtė</t>
-  </si>
-  <si>
-    <t>Greta</t>
-  </si>
-  <si>
-    <t>gretajes</t>
-  </si>
-  <si>
-    <t>Lauruškaitė</t>
-  </si>
-  <si>
-    <t>lauruskyte</t>
-  </si>
-  <si>
-    <t>Semėnas</t>
-  </si>
-  <si>
-    <t>Gytis</t>
-  </si>
-  <si>
-    <t>gyse3054</t>
-  </si>
-  <si>
-    <t>Sasnauskaitė</t>
-  </si>
-  <si>
-    <t>Justina</t>
-  </si>
-  <si>
-    <t>justinasasnauskaite</t>
-  </si>
-  <si>
-    <t>Lenzbergaitė</t>
-  </si>
-  <si>
-    <t>Karolina</t>
-  </si>
-  <si>
-    <t>kale3205</t>
-  </si>
-  <si>
     <t>Rabašauskaitė</t>
   </si>
   <si>
-    <t>Gudžiūnas</t>
-  </si>
-  <si>
-    <t>Kęstutis</t>
-  </si>
-  <si>
-    <t>Kestous</t>
-  </si>
-  <si>
-    <t>Pieškutė</t>
-  </si>
-  <si>
-    <t>Milda</t>
-  </si>
-  <si>
-    <t>MildaPie</t>
-  </si>
-  <si>
-    <t>Jautakaitė</t>
-  </si>
-  <si>
-    <t>Orinta</t>
-  </si>
-  <si>
-    <t>ojautakaite</t>
-  </si>
-  <si>
-    <t>Balužis</t>
-  </si>
-  <si>
-    <t>Raigardas</t>
-  </si>
-  <si>
-    <t>raigardas</t>
-  </si>
-  <si>
-    <t>Aleksandravičius</t>
-  </si>
-  <si>
-    <t>Rokas</t>
-  </si>
-  <si>
-    <t>rokasaleks</t>
-  </si>
-  <si>
-    <t>Kozlovskaja</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>SandraKozlovskaja</t>
-  </si>
-  <si>
-    <t>Gritytė</t>
-  </si>
-  <si>
-    <t>Simona</t>
-  </si>
-  <si>
-    <t>simona1234</t>
-  </si>
-  <si>
-    <t>Levickaitė</t>
-  </si>
-  <si>
-    <t>simonalevickaite</t>
-  </si>
-  <si>
     <t>Bagonas</t>
   </si>
   <si>
@@ -282,22 +306,16 @@
     <t>Žygimantas</t>
   </si>
   <si>
-    <t>Tučiutė</t>
-  </si>
-  <si>
-    <t>Auksė</t>
-  </si>
-  <si>
-    <t>auksetuciute</t>
-  </si>
-  <si>
-    <t>Samaitis</t>
-  </si>
-  <si>
-    <t>Jurgis</t>
-  </si>
-  <si>
-    <t>aukslius12</t>
+    <t>Stulpelis zymi kas skaito, o eilutė kuriuos darbus reikia skaityti. Pvz:</t>
+  </si>
+  <si>
+    <t>Adammikelevic tikrina šiuos žmones: zagnyte, sindeivydas, emru3000, kale3205, raigardas</t>
+  </si>
+  <si>
+    <t>zagnyte tikrina šiuos žmones: aipe00, domanteb, lauruskyte, Kestous, rokasaleks</t>
+  </si>
+  <si>
+    <t>Vertinius sukelti į google forms: https://docs.google.com/forms/d/e/1FAIpQLSfU3pHAgrXh4oIBkSu_MmN037vCnhWC7p5HUfH6t3oX56utEA/viewform</t>
   </si>
 </sst>
 </file>
@@ -307,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,8 +348,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +364,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,8 +421,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,7 +434,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,6 +467,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -413,23 +539,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B6:H37"/>
+  <dimension ref="B6:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -441,13 +567,13 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -586,10 +712,10 @@
     </row>
     <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1512236</v>
+        <v>1512212</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>28</v>
@@ -597,419 +723,432 @@
       <c r="E14" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1512212</v>
+        <v>1512210</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1512210</v>
+        <v>1512216</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1512216</v>
+        <v>1512232</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1512211</v>
+        <v>1512217</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="true" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>1512213</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="F18" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1413328</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1512232</v>
+        <v>1512237</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1512217</v>
+        <v>1512227</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1413328</v>
+        <v>1512230</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1512237</v>
+        <v>1512209</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">0.2+0.3</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1112206</v>
+        <v>1512221</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1512227</v>
+        <v>1512231</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1512230</v>
+        <v>1512219</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.1</v>
+        <f aca="false">0.2+0.3</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1512209</v>
+        <v>1512224</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.2</v>
+        <f aca="false">0.2+0.3+0.1</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1512221</v>
+        <v>1512214</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>1512231</v>
+        <v>30</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1512219</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1512224</v>
-      </c>
-      <c r="D31" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <f aca="false">0.2+0.3+0.1</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1512214</v>
-      </c>
-      <c r="D32" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1512211</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="0" t="s">
+      <c r="E38" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
+      <c r="F38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="true" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>1512213</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1512236</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1112206</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C42" s="0" t="n">
         <v>1512238</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
+      <c r="D42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C43" s="0" t="n">
         <v>1512226</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
+      <c r="D43" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C44" s="0" t="n">
         <v>1411452</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="D44" s="0" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
+      <c r="E44" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="C6:E35"/>
+  <autoFilter ref="C6:E33"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1019,4 +1158,790 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C2:AA33"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0971659919028"/>
+    <col collapsed="false" hidden="false" max="27" min="5" style="0" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="112.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="https://docs.google.com/forms/d/e/1FAIpQLSfU3pHAgrXh4oIBkSu_MmN037vCnhWC7p5HUfH6t3oX56utEA/viewform"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Studentai.xlsx
+++ b/Studentai.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\PE1\Econometrics1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="sarasas" sheetId="1" r:id="rId1"/>
+    <sheet name="tikrinimo paskirstymas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$C$6:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">sarasas!$C$6:$E$33</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">sarasas!$C$6:$E$33</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">sarasas!$C$6:$E$33</definedName>
+    <definedName name="aaa" localSheetId="0">sarasas!$C$6:$E$33</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -321,32 +324,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -388,7 +373,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -396,77 +381,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -525,36 +460,304 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B6:H65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:H44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col min="1" max="3" width="8.5703125"/>
+    <col min="4" max="4" width="19.42578125"/>
+    <col min="5" max="5" width="17.28515625"/>
+    <col min="6" max="6" width="23.28515625"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,490 +780,490 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1512228</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>1512229</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">0.2+0.2+0.1</f>
+      <c r="H8">
+        <f>0.2+0.2+0.1</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>1512215</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">0.1+0.1</f>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>0.1+0.1</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>1512234</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>1512225</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>1512220</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>1512222</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>1512212</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>1512210</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>1512216</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>1512232</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>1512217</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>1413328</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>1512237</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>1512227</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>1512230</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>8</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>1512209</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <f aca="false">0.2+0.3</f>
+      <c r="H23">
+        <f>0.2+0.3</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>1512221</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+    <row r="25" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>1512231</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
+    <row r="26" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>1512219</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <f aca="false">0.2+0.3</f>
+      <c r="H26">
+        <f>0.2+0.3</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
+    <row r="27" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>1512224</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <f aca="false">0.2+0.3+0.1</f>
+      <c r="H27">
+        <f>0.2+0.3+0.1</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="n">
+    <row r="28" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>1512214</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="n">
+    <row r="29" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>30</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
+    <row r="30" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>31</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>76</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="n">
+    <row r="36" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>12</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>1512211</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>79</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="true" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="n">
+    <row r="39" spans="2:8" s="3" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
         <v>13</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>1512213</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1076,110 +1279,102 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="n">
+    <row r="40" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>8</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>1512236</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="n">
+    <row r="41" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>18</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>1112206</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="n">
+    <row r="42" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>27</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>1512238</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="n">
+    <row r="43" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>28</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>1512226</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="n">
+    <row r="44" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>29</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>1411452</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="C6:E33"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AA33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0971659919028"/>
-    <col collapsed="false" hidden="false" max="27" min="5" style="0" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.1417004048583"/>
+    <col min="4" max="4" width="16.140625"/>
+    <col min="5" max="27" width="4.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>92</v>
       </c>
@@ -1207,7 +1402,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>93</v>
       </c>
@@ -1235,7 +1430,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
         <v>94</v>
       </c>
@@ -1254,85 +1449,83 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="n">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="5">
         <v>3</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="5">
         <v>4</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="5">
         <v>5</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="5">
         <v>6</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="5">
         <v>7</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="5">
         <v>8</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="5">
         <v>9</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="5">
         <v>10</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="5">
         <v>11</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="5">
         <v>12</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q9" s="5">
         <v>13</v>
       </c>
-      <c r="R9" s="5" t="n">
+      <c r="R9" s="5">
         <v>14</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="S9" s="5">
         <v>15</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="5">
         <v>16</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="5">
         <v>17</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="5">
         <v>18</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="5">
         <v>19</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="5">
         <v>20</v>
       </c>
-      <c r="Y9" s="5" t="n">
+      <c r="Y9" s="5">
         <v>21</v>
       </c>
-      <c r="Z9" s="5" t="n">
+      <c r="Z9" s="5">
         <v>22</v>
       </c>
-      <c r="AA9" s="5" t="n">
+      <c r="AA9" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="112.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="3:27" ht="97.5" x14ac:dyDescent="0.25">
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1403,532 +1596,532 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="7" t="n">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="7" t="n">
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="7" t="n">
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="7" t="n">
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
+      <c r="X13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="7" t="n">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+      <c r="U14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
         <v>5</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="7" t="n">
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="R15" s="8">
+        <v>1</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
         <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="7" t="n">
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="S16" s="8">
+        <v>1</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
         <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="7" t="n">
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
+      </c>
+      <c r="T17" s="8">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C18" s="7">
         <v>8</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="7" t="n">
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C19" s="7">
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="7" t="n">
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
+        <v>1</v>
+      </c>
+      <c r="V19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C20" s="7">
         <v>10</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="7" t="n">
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+      <c r="S20" s="8">
+        <v>1</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C21" s="7">
         <v>11</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="7" t="n">
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1</v>
+      </c>
+      <c r="T21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C22" s="7">
         <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="7" t="n">
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>1</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C23" s="7">
         <v>13</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="7" t="n">
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1</v>
+      </c>
+      <c r="V23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C24" s="7">
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="7" t="n">
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="S24" s="8">
+        <v>1</v>
+      </c>
+      <c r="W24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C25" s="7">
         <v>15</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="7" t="n">
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8">
+        <v>1</v>
+      </c>
+      <c r="T25" s="8">
+        <v>1</v>
+      </c>
+      <c r="X25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C26" s="7">
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="7" t="n">
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1</v>
+      </c>
+      <c r="U26" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C27" s="7">
         <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="7" t="n">
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8">
+        <v>1</v>
+      </c>
+      <c r="V27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="7">
         <v>18</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="7" t="n">
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="P28" s="8">
+        <v>1</v>
+      </c>
+      <c r="W28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C29" s="7">
         <v>19</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="7" t="n">
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>1</v>
+      </c>
+      <c r="X29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C30" s="7">
         <v>20</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="7" t="n">
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C31" s="7">
         <v>21</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="7" t="n">
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8">
+        <v>1</v>
+      </c>
+      <c r="S31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C32" s="7">
         <v>22</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T32" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="7" t="n">
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="P32" s="8">
+        <v>1</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="7">
         <v>23</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U33" s="8" t="n">
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1</v>
+      </c>
+      <c r="M33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>1</v>
+      </c>
+      <c r="U33" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1936,10 +2129,9 @@
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" display="https://docs.google.com/forms/d/e/1FAIpQLSfU3pHAgrXh4oIBkSu_MmN037vCnhWC7p5HUfH6t3oX56utEA/viewform"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Studentai.xlsx
+++ b/Studentai.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="sarasas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t>Nr</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Vertinius sukelti į google forms: https://docs.google.com/forms/d/e/1FAIpQLSfU3pHAgrXh4oIBkSu_MmN037vCnhWC7p5HUfH6t3oX56utEA/viewform</t>
+  </si>
+  <si>
+    <t>Uz  dalyvavima task 13</t>
   </si>
 </sst>
 </file>
@@ -744,9 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:H44"/>
+  <dimension ref="B6:I44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -757,7 +762,7 @@
     <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,8 +784,11 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -797,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -817,8 +825,11 @@
         <f>0.2+0.2+0.1</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -841,8 +852,11 @@
         <f>0.1+0.1</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -862,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -878,8 +892,11 @@
       <c r="F11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -896,7 +913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -912,8 +929,11 @@
       <c r="F13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
@@ -930,7 +950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -949,8 +969,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
@@ -966,8 +989,11 @@
       <c r="F16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -983,8 +1009,11 @@
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1001,7 +1030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1018,7 +1047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1034,8 +1063,11 @@
       <c r="F20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1055,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1078,7 +1110,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
@@ -1098,8 +1130,11 @@
         <f>0.2+0.3</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
@@ -1121,8 +1156,11 @@
       <c r="H24">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
@@ -1142,7 +1180,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>24</v>
       </c>
@@ -1162,8 +1200,11 @@
         <f>0.2+0.3</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>25</v>
       </c>
@@ -1186,8 +1227,11 @@
         <f>0.2+0.3+0.1</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>26</v>
       </c>
@@ -1204,7 +1248,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>30</v>
       </c>
@@ -1218,9 +1262,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
